--- a/data/home_workout.xlsx
+++ b/data/home_workout.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangcong/Documents/DataScienceMom/Projects/Barrys/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangcong/Documents/Learnings/Data Science/Data Science_Udacity/home_workout/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D3D0B1-00D6-2B48-96EE-C4AB991329FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE4EA88-2A3E-5049-A677-F8BCBB1550FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" xr2:uid="{96D6C311-B713-DE42-881E-789C48FE59C0}"/>
   </bookViews>
@@ -657,10 +657,10 @@
     <t>Weights</t>
   </si>
   <si>
-    <t>Body Weight</t>
-  </si>
-  <si>
     <t>Bands</t>
+  </si>
+  <si>
+    <t>Bodyweight</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1025,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1120,7 +1120,7 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E3">
         <v>33</v>
@@ -1190,7 +1190,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E5">
         <v>37</v>
@@ -1295,7 +1295,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E8">
         <v>35</v>
@@ -1330,7 +1330,7 @@
         <v>23</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E9">
         <v>37</v>
@@ -1365,7 +1365,7 @@
         <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E10">
         <v>33</v>
@@ -1435,7 +1435,7 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E12">
         <v>35</v>
@@ -1470,7 +1470,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E13">
         <v>32</v>
@@ -1540,7 +1540,7 @@
         <v>14</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E15">
         <v>37</v>
@@ -1610,7 +1610,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E17">
         <v>33</v>
@@ -1645,7 +1645,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E18">
         <v>47</v>
@@ -1715,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E20">
         <v>32</v>
@@ -1750,7 +1750,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E21">
         <v>36</v>
@@ -1855,7 +1855,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E24">
         <v>35</v>
@@ -1925,7 +1925,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E26">
         <v>31</v>
@@ -1995,7 +1995,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E28">
         <v>35</v>
@@ -2205,7 +2205,7 @@
         <v>9</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E34">
         <v>36</v>
@@ -2275,7 +2275,7 @@
         <v>23</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E36">
         <v>37</v>
@@ -2415,7 +2415,7 @@
         <v>22</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E40">
         <v>32</v>
@@ -2450,7 +2450,7 @@
         <v>14</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E41">
         <v>35</v>
@@ -2485,7 +2485,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E42">
         <v>35</v>
@@ -2660,7 +2660,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E47">
         <v>45</v>
@@ -2695,7 +2695,7 @@
         <v>23</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E48">
         <v>37</v>
@@ -2730,7 +2730,7 @@
         <v>23</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E49">
         <v>46</v>
@@ -2870,7 +2870,7 @@
         <v>22</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E53">
         <v>37</v>
@@ -3010,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E57">
         <v>42</v>
@@ -3185,7 +3185,7 @@
         <v>23</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E62">
         <v>37</v>
@@ -3290,7 +3290,7 @@
         <v>9</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E65">
         <v>33</v>
@@ -3325,7 +3325,7 @@
         <v>22</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E66">
         <v>36</v>
@@ -3465,7 +3465,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E70">
         <v>36</v>
@@ -3500,7 +3500,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E71">
         <v>32</v>
@@ -3605,7 +3605,7 @@
         <v>9</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E74">
         <v>48</v>
@@ -3640,7 +3640,7 @@
         <v>23</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E75">
         <v>36</v>
@@ -3675,7 +3675,7 @@
         <v>23</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E76">
         <v>41</v>
@@ -3745,7 +3745,7 @@
         <v>22</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E78">
         <v>38</v>
@@ -3815,7 +3815,7 @@
         <v>14</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E80">
         <v>36</v>
@@ -3850,7 +3850,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E81">
         <v>35</v>
@@ -3885,7 +3885,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E82">
         <v>36</v>
@@ -3990,7 +3990,7 @@
         <v>9</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E85">
         <v>37</v>
@@ -4060,7 +4060,7 @@
         <v>23</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E87">
         <v>37</v>
@@ -4235,7 +4235,7 @@
         <v>22</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E92">
         <v>44</v>
@@ -4305,7 +4305,7 @@
         <v>14</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E94">
         <v>45</v>
@@ -4340,7 +4340,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E95">
         <v>45</v>
@@ -4375,7 +4375,7 @@
         <v>8</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E96">
         <v>43</v>
@@ -4480,7 +4480,7 @@
         <v>9</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E99">
         <v>46</v>
@@ -4550,7 +4550,7 @@
         <v>23</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E101">
         <v>47</v>
@@ -4585,7 +4585,7 @@
         <v>23</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E102">
         <v>48</v>
@@ -4690,7 +4690,7 @@
         <v>22</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E105">
         <v>49</v>
@@ -4830,7 +4830,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E109">
         <v>44</v>
@@ -4970,7 +4970,7 @@
         <v>9</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E113">
         <v>44</v>
@@ -5040,7 +5040,7 @@
         <v>23</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E115">
         <v>45</v>
@@ -5075,7 +5075,7 @@
         <v>23</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E116">
         <v>46</v>
@@ -5110,7 +5110,7 @@
         <v>9</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E117">
         <v>45</v>
@@ -5180,7 +5180,7 @@
         <v>22</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E119">
         <v>45</v>
@@ -5285,7 +5285,7 @@
         <v>14</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E122">
         <v>43</v>
@@ -5320,7 +5320,7 @@
         <v>8</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E123">
         <v>43</v>
@@ -5460,7 +5460,7 @@
         <v>9</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E127">
         <v>44</v>
@@ -5495,7 +5495,7 @@
         <v>9</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E128">
         <v>44</v>
@@ -5565,7 +5565,7 @@
         <v>23</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E130">
         <v>38</v>
@@ -5600,7 +5600,7 @@
         <v>9</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E131">
         <v>46</v>
@@ -5705,7 +5705,7 @@
         <v>22</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E134">
         <v>43</v>
@@ -5775,7 +5775,7 @@
         <v>14</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E136">
         <v>44</v>
@@ -5845,7 +5845,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E138">
         <v>44</v>
@@ -5915,7 +5915,7 @@
         <v>11</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E140">
         <v>42</v>
@@ -5985,7 +5985,7 @@
         <v>9</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E142">
         <v>39</v>
@@ -6020,7 +6020,7 @@
         <v>23</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E143">
         <v>47</v>
@@ -6090,7 +6090,7 @@
         <v>9</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E145">
         <v>42</v>
@@ -6195,7 +6195,7 @@
         <v>22</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E148">
         <v>42</v>
@@ -6335,7 +6335,7 @@
         <v>8</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E152">
         <v>44</v>
@@ -6440,7 +6440,7 @@
         <v>9</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E155">
         <v>43</v>
@@ -6475,7 +6475,7 @@
         <v>9</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E156">
         <v>47</v>
@@ -6580,7 +6580,7 @@
         <v>9</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E159">
         <v>43</v>
@@ -6650,7 +6650,7 @@
         <v>22</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E161">
         <v>39</v>
@@ -6685,7 +6685,7 @@
         <v>22</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E162">
         <v>43</v>
@@ -6790,7 +6790,7 @@
         <v>9</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E165">
         <v>43</v>
@@ -6825,7 +6825,7 @@
         <v>23</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E166">
         <v>45</v>
@@ -6895,7 +6895,7 @@
         <v>9</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E168">
         <v>43</v>
@@ -6965,7 +6965,7 @@
         <v>22</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E170">
         <v>43</v>
@@ -7000,7 +7000,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E171">
         <v>42</v>
@@ -7070,7 +7070,7 @@
         <v>9</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E173">
         <v>46</v>
@@ -7210,7 +7210,7 @@
         <v>23</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E177">
         <v>47</v>
@@ -7245,7 +7245,7 @@
         <v>9</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E178">
         <v>44</v>
@@ -7315,7 +7315,7 @@
         <v>22</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E180">
         <v>43</v>
@@ -7350,7 +7350,7 @@
         <v>14</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E181">
         <v>43</v>
@@ -7525,7 +7525,7 @@
         <v>9</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E186">
         <v>42</v>
